--- a/2023_Second_analysis/session_codes/Session_codes.xlsx
+++ b/2023_Second_analysis/session_codes/Session_codes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzyssjkc\Gitwork\Person_Identy_First_Language\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzyssjkc\Gitwork\Person_Identy_First_Language\2023_Second_analysis\session_codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D8DDB7-AB7B-42D4-98F6-1D570E965BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885CAD6-9C7D-4F66-BAB3-51AAADC0DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00C58B1A-7F39-4188-9946-25595390B6EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1055">
   <si>
     <t>Year</t>
   </si>
@@ -687,13 +687,2527 @@
   </si>
   <si>
     <t>Prenatal diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01. Clinical genetics P01.001–P01.370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02. Cytogenetics P02.001–P02.242 </t>
+  </si>
+  <si>
+    <t>P03. Prenatal diagnosis P03.01–P03.77</t>
+  </si>
+  <si>
+    <t>P04. Cancer genetics P04.001–P04.207</t>
+  </si>
+  <si>
+    <t>P05. Molecular and biochemical basis of disease P05.001–P05.216</t>
+  </si>
+  <si>
+    <t>P06. Genetic analysis, linkage, and association P06.001–P06.326</t>
+  </si>
+  <si>
+    <t>P07. Normal variation, population genetics, genetic epidemiology P07.001–P07.139</t>
+  </si>
+  <si>
+    <t>P08. Genomics, technology, bioinformatics P08.01–P08.87</t>
+  </si>
+  <si>
+    <t>P09. Genetic counselling, education, genetic services, and public policy P09.01–P09.73</t>
+  </si>
+  <si>
+    <t>P10. Therapy for genetic disease P10.01–P10.28</t>
+  </si>
+  <si>
+    <t>Plenary Lectures EPL1.1–EPL6.5</t>
+  </si>
+  <si>
+    <t>Workshops EW1.1–EW4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP12. Family dynamics and genetic conditions EP12.1–EP12.3 </t>
+  </si>
+  <si>
+    <t>P01. Genetic counseling, including Psychosocial aspects, Genetics education,</t>
+  </si>
+  <si>
+    <t>P11. Genomics, Genomic technology including bioinformatics methods, gene</t>
+  </si>
+  <si>
+    <t>P17. Genetic epidemiology/Population genetics/Statistical methodology</t>
+  </si>
+  <si>
+    <t>P18. Genetic Epidemiology/Population Genetics/Statistical Methodology and</t>
+  </si>
+  <si>
+    <t>Electronic Posters E-P01.01 - E-P20.02 407</t>
+  </si>
+  <si>
+    <t>EMPAG Presenations 485</t>
+  </si>
+  <si>
+    <t>PL1 50 years of ESHG</t>
+  </si>
+  <si>
+    <t>PL2 What's New? Highlights Session</t>
+  </si>
+  <si>
+    <t>PL3 "ESHG-ASHG Building Bridges Debate: Ethical and Legal Discussions—Past, Present &amp; Future"</t>
+  </si>
+  <si>
+    <t>PL4 Mendel Lecture</t>
+  </si>
+  <si>
+    <t>PL5 ESHG Award Lecture</t>
+  </si>
+  <si>
+    <t>Concurrent Symposia</t>
+  </si>
+  <si>
+    <t>S01 Single cell studies: From technology to biology</t>
+  </si>
+  <si>
+    <t>S02 "One gene, many phenotypes"</t>
+  </si>
+  <si>
+    <t>S03 Novel Treatment Options</t>
+  </si>
+  <si>
+    <t>S04 From Association to Causality in complex diseases</t>
+  </si>
+  <si>
+    <t>S05 3D genome architecture: non-coding variants and human disease</t>
+  </si>
+  <si>
+    <t>S06 Treatment-Focused Genetic Testing in Cancer</t>
+  </si>
+  <si>
+    <t>S07 Still the golden age of chromosomes</t>
+  </si>
+  <si>
+    <t>S08 New technologies in Neurogenetics</t>
+  </si>
+  <si>
+    <t>S09 Explaining phenotypic variability</t>
+  </si>
+  <si>
+    <t>S10 Population and evolutionary genetics</t>
+  </si>
+  <si>
+    <t>S11 Cancer immunogenetics</t>
+  </si>
+  <si>
+    <t>S12 Genetics and Microbiome</t>
+  </si>
+  <si>
+    <t>S13 Next generation clinical genetics</t>
+  </si>
+  <si>
+    <t>S14 Organoid models: The Maxi Impact Of Mini Organs</t>
+  </si>
+  <si>
+    <t>S15 ESHG / ESC JOINT Symposium: Polygenic Cardiovascular traits</t>
+  </si>
+  <si>
+    <t>S16 Autophagy in health and disease</t>
+  </si>
+  <si>
+    <t>Educational Sessions</t>
+  </si>
+  <si>
+    <t>E01 "Sequencing, Sponsored by Illumina"</t>
+  </si>
+  <si>
+    <t>E02 CRISPR/Cas9 genome editing to model disease</t>
+  </si>
+  <si>
+    <t>E03 50 Shades of Cancer Genetics</t>
+  </si>
+  <si>
+    <t>E04 Channelopathies</t>
+  </si>
+  <si>
+    <t>E05 Imprinting-related disorders</t>
+  </si>
+  <si>
+    <t>E06 Bioethics for 'dummies'</t>
+  </si>
+  <si>
+    <t>E07 Pharmacogenomics in the clinic</t>
+  </si>
+  <si>
+    <t>E08 Multi-omics data integration</t>
+  </si>
+  <si>
+    <t>E09 Phakomatosis Update</t>
+  </si>
+  <si>
+    <t>E10 Whole-genome haplotyping methods for human embryo selection</t>
+  </si>
+  <si>
+    <t>E11 Strategies to avoid sudden cardiac death</t>
+  </si>
+  <si>
+    <t>E12 The evolution of genetic counseling: Lessons learned from psychotherapy</t>
+  </si>
+  <si>
+    <t>E13 Network Medicine</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions</t>
+  </si>
+  <si>
+    <t>C01 Personalized Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>C02 Neurogenetics 1</t>
+  </si>
+  <si>
+    <t>C03 Best Posters Session</t>
+  </si>
+  <si>
+    <t>C04 Epigenetics and Gene Regulation</t>
+  </si>
+  <si>
+    <t>C05 Skin and Bones</t>
+  </si>
+  <si>
+    <t>C06 ELSI genomics</t>
+  </si>
+  <si>
+    <t>C07 Novel genomics technologies</t>
+  </si>
+  <si>
+    <t>C08 Neuromuscular Disorders</t>
+  </si>
+  <si>
+    <t>C09 Molecular Mechanisms of Disease</t>
+  </si>
+  <si>
+    <t>C10 GWAS: Resolving Missing Causality</t>
+  </si>
+  <si>
+    <t>C11 Sensory disorders</t>
+  </si>
+  <si>
+    <t>C12 Engaging Patients in Genomics</t>
+  </si>
+  <si>
+    <t>C13 Innovative Variant Interpretation</t>
+  </si>
+  <si>
+    <t>C14 Population Genetics and Ancient DNA</t>
+  </si>
+  <si>
+    <t>C15 Reproductive Genetics</t>
+  </si>
+  <si>
+    <t>C16 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>C17 Hereditary Cancer</t>
+  </si>
+  <si>
+    <t>C18 Internal organs</t>
+  </si>
+  <si>
+    <t>C19 Diagnostic variant interpretation and quality control</t>
+  </si>
+  <si>
+    <t>C20 Molecular syndromology</t>
+  </si>
+  <si>
+    <t>C21 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>C22 Systems Genetics</t>
+  </si>
+  <si>
+    <t>C23 Neurogenetics 2</t>
+  </si>
+  <si>
+    <t>      P01 Reproductive Genetics/Prenatal Genetics</t>
+  </si>
+  <si>
+    <t>P02 "Sensory disorders (eye, ear, pain)"</t>
+  </si>
+  <si>
+    <t>P03 "Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal)"</t>
+  </si>
+  <si>
+    <t>P04 "Skeletal, connective tissue, ectodermal and skin disorders"</t>
+  </si>
+  <si>
+    <t>P05 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>P06 Metabolic and mitochondrial disorders</t>
+  </si>
+  <si>
+    <t>P07 Immunology and hematopoietic system</t>
+  </si>
+  <si>
+    <t>P08 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>P09 Neurogenetic and psychiatric disorders</t>
+  </si>
+  <si>
+    <t>P10 Neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>P11 Multiple Malformation/anomalies syndromes</t>
+  </si>
+  <si>
+    <t>P12 Cancer genetics</t>
+  </si>
+  <si>
+    <t>P13 Basic mechanisms in molecular and cytogenetics</t>
+  </si>
+  <si>
+    <t>P14 "New diagnostic approaches, technical aspects &amp; quality control"</t>
+  </si>
+  <si>
+    <t>P15 Personalized/Predictive Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>P16 Omics/Bioinformatics</t>
+  </si>
+  <si>
+    <t>P17 Epigenetics and Gene Regulation</t>
+  </si>
+  <si>
+    <t>P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics</t>
+  </si>
+  <si>
+    <t>P19 Genetic counselling/Education/public services</t>
+  </si>
+  <si>
+    <t>P20 Psychological/Ethical/legal issues</t>
+  </si>
+  <si>
+    <t>E-P01 Reproductive Genetics/Prenatal Genetics</t>
+  </si>
+  <si>
+    <t>E-P02 "Sensory disorders (eye, ear, pain)"</t>
+  </si>
+  <si>
+    <t>E-P03 "Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal)"</t>
+  </si>
+  <si>
+    <t>E-P04 "Skeletal, connective tissue, ectodermal and skin disorders"</t>
+  </si>
+  <si>
+    <t>E-P05 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>E-P06 Metabolic and mitochondrial disorders</t>
+  </si>
+  <si>
+    <t>E-P07 Immunology and hematopoietic system</t>
+  </si>
+  <si>
+    <t>E-P08 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>E-P09 Neurogenetic and psychiatric disorders</t>
+  </si>
+  <si>
+    <t>E-P10 Neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>E-P11 Multiple Malformation/anomalies syndromes</t>
+  </si>
+  <si>
+    <t>E-P12 Cancer genetics</t>
+  </si>
+  <si>
+    <t>E-P13 Basic mechanisms in molecular and cytogenetics</t>
+  </si>
+  <si>
+    <t>E-P14 "New diagnostic approaches, technical aspects &amp; quality control"</t>
+  </si>
+  <si>
+    <t>E-P15 Personalized/Predictive Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>E-P16 Omics/Bioinformatics</t>
+  </si>
+  <si>
+    <t>E-P17 Epigenetics and Gene Regulation</t>
+  </si>
+  <si>
+    <t>E-P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics</t>
+  </si>
+  <si>
+    <t>E-P19 Genetic counselling/Education/public services</t>
+  </si>
+  <si>
+    <t>E-P20 Psychological/Ethical/legal issues</t>
+  </si>
+  <si>
+    <t>PL1 Opening plenary lecture (PL1.1-PL1.2)</t>
+  </si>
+  <si>
+    <t>PL2 What’s New (PL2.1-2.6, LB1-LB3)</t>
+  </si>
+  <si>
+    <t>PL3 Mendel Lecture (PL3.1)</t>
+  </si>
+  <si>
+    <t>S01 Prenatal Genetics-joint with EMPAG (S01.1-S01.3)</t>
+  </si>
+  <si>
+    <t>S02 DNA damage and repair in cancer (S02.1-S02.2)</t>
+  </si>
+  <si>
+    <t>S03 Genome Organization and Function (S03.2)</t>
+  </si>
+  <si>
+    <t>S04 Genetics of dizziness (S04.2-S04.3)</t>
+  </si>
+  <si>
+    <t>S05 Large-scale genetic studies in complex diseases (S05.2-S05.3)</t>
+  </si>
+  <si>
+    <t>S06 Liquid biopsies in cancer (S06.3)</t>
+  </si>
+  <si>
+    <t>S07 Drug repurposing for treating genetic disorders (S07.1-S07.2)</t>
+  </si>
+  <si>
+    <t>S08 Microbiome and Virome (S08.1)</t>
+  </si>
+  <si>
+    <t>S09 New Genomic Technologies (S09.1-S09.3)</t>
+  </si>
+  <si>
+    <t>S11 Epigenetics of the brain (S11.1-S11.3)</t>
+  </si>
+  <si>
+    <t>S12 Retinal diseases (S12.1-S12.3)</t>
+  </si>
+  <si>
+    <t>S13 Genome editing (S13.1, S13.3)</t>
+  </si>
+  <si>
+    <t>S14 Cellular heterogeneity in health and disease (S14.2-S14.3)</t>
+  </si>
+  <si>
+    <t>S15 Understanding non-coding variants (S15.2)</t>
+  </si>
+  <si>
+    <t>S16 Human epigenome dynamics (S16.1-S16.3)</t>
+  </si>
+  <si>
+    <t>S17 ESHG-ASHG Building Bridges Debate: Germline genome editing-joint with EMPAG (S17.1-S17.2, S17.4)</t>
+  </si>
+  <si>
+    <t>S18 Regulatory sequence functions and elements (S18.1-S18.3)</t>
+  </si>
+  <si>
+    <t>S19 New nanotechnologies: the DNA Origami (S19.2)</t>
+  </si>
+  <si>
+    <t>E02 Hereditary cancer (E02.1-E2.2)</t>
+  </si>
+  <si>
+    <t>E03 Resources for gene function analysis (E03.1-E3.2)</t>
+  </si>
+  <si>
+    <t>E04 Pharmacogenomics (E04.1-E4.2)</t>
+  </si>
+  <si>
+    <t>E05 Bone Density: High and Low (E05.1)</t>
+  </si>
+  <si>
+    <t>E06 Statistics in Genetic Research and Diagnostics (E06.1-E06.2)</t>
+  </si>
+  <si>
+    <t>E07 Organoids (E07.1-E07.2)</t>
+  </si>
+  <si>
+    <t>E08 Congenital vasculopathies (E08.1-E08.2)</t>
+  </si>
+  <si>
+    <t>E09 Iron in the brain-joint session with the European Society of Neurology (E09.2)</t>
+  </si>
+  <si>
+    <t>E10 Genetics of infertility (E10.1)</t>
+  </si>
+  <si>
+    <t>E12 Undiagnosed disease and matchmaking initiatives (E12.2)</t>
+  </si>
+  <si>
+    <t>E13 Brain abnormalities in fetal life (E13.1-E13.2)</t>
+  </si>
+  <si>
+    <t>E15 Disorders of sexual development (E15.1-E15.2)</t>
+  </si>
+  <si>
+    <t>E16 Genetics with a Bite (E16.1-E16.2)</t>
+  </si>
+  <si>
+    <t>C01 Precision and Predictive Medicine (C01.1-C01.6)</t>
+  </si>
+  <si>
+    <t>C02 Syndrome updates 1 (C02.1-C02.6)</t>
+  </si>
+  <si>
+    <t>C03 Multi-omics 1 (C03.1-C03.6)</t>
+  </si>
+  <si>
+    <t>C04 Epigenetics and Gene Regulation (C04.1-C04.6)</t>
+  </si>
+  <si>
+    <t>C05 Neurological and Neuromuscular Disorders (C05.1-C05.6)</t>
+  </si>
+  <si>
+    <t>C06 Internal Organs (C06.1-C06.6)</t>
+  </si>
+  <si>
+    <t>C07 NGS diagnostics (C07.1-C07.6)</t>
+  </si>
+  <si>
+    <t>C08 Population Genetics (C08.1-C08.6)</t>
+  </si>
+  <si>
+    <t>C09 Mendelian chromatin disorders (C09.1-C09.6)</t>
+  </si>
+  <si>
+    <t>C10 Best Posters 1 (P15.05A, P15.27C, P15.03C, P15.11C, P15.41A, P17.06B, P11.017A, P17.58B, P17.22B, P18.34B, P18.12D, P18.25A, P18.48D, P18.77A)</t>
+  </si>
+  <si>
+    <t>C11 Metabolic and Mitochondrial Disorder (C11.1-C11.6)</t>
+  </si>
+  <si>
+    <t>C12 Skin and Bones (C12.1-C12.6)</t>
+  </si>
+  <si>
+    <t>C13 Prenatal and Reproductive Genetics (C13.1-C13.6)</t>
+  </si>
+  <si>
+    <t>C14 Cancer genetics (C14.1-C14.6)</t>
+  </si>
+  <si>
+    <t>C15 Syndrome updates 2 (C15.1-C15.6)</t>
+  </si>
+  <si>
+    <t>C16 Multi-omics 2 (C16.1-C16.6)</t>
+  </si>
+  <si>
+    <t>C17 Intellectual disability 1 (C17.1-C17.6)</t>
+  </si>
+  <si>
+    <t>C18 Cardiovascular disorders (C18.1-C18.6)</t>
+  </si>
+  <si>
+    <t>C19 Advanced sequencing technologies (C19.1-C19.6)</t>
+  </si>
+  <si>
+    <t>C20 Intellectual Disability 2 (C20.1-C20.6)</t>
+  </si>
+  <si>
+    <t>C21 Statistical Genetics (C21.1-C21.6)</t>
+  </si>
+  <si>
+    <t>C22 Best Posters 2 (P02.48C, P04.05A, P06.64D, P06.72D, P06.35C. P06.36D, P09.001A, P09.98B, P09.139C, P12.214B, P19.24D, P20.05A, P16.40D)</t>
+  </si>
+  <si>
+    <t>C23 Sensory disorders (C23.1-C23.6)</t>
+  </si>
+  <si>
+    <t>P01 Reproductive Genetics/Prenatal Genetics (P01.01A-P01.98B)</t>
+  </si>
+  <si>
+    <t>P02 Sensory disorders (eye, ear, pain) (P02.02A-P02.60C)</t>
+  </si>
+  <si>
+    <t>P03 Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal) (P03.01D-P03.46A)</t>
+  </si>
+  <si>
+    <t>P04 Skeletal, connective tissue, ectodermal and skin disorders (P04.01A-P04.91C)</t>
+  </si>
+  <si>
+    <t>P05 Cardiovascular disorders (P05.01A-P05.74B)</t>
+  </si>
+  <si>
+    <t>P06 Metabolic and mitochondrial disorders (P06.01A-P06.74B)</t>
+  </si>
+  <si>
+    <t>P07 Immunology and hematopoietic system (P07.01A-P07.18B)</t>
+  </si>
+  <si>
+    <t>P08 Intellectual Disability (P08.01A-P08.78B)</t>
+  </si>
+  <si>
+    <t>P09 Neurogenetic and psychiatric disorders (P09.001A-P09.156D)</t>
+  </si>
+  <si>
+    <t>P10 Neuromuscular disorders (P10.01A-P10.55C)</t>
+  </si>
+  <si>
+    <t>P11 Multiple Malformation/anomalies syndromes (P11.001A -P11.103C)</t>
+  </si>
+  <si>
+    <t>P12 Cancer genetics (P12.001A-P12.216D)</t>
+  </si>
+  <si>
+    <t>P13 Basic mechanisms in molecular and cytogenetics (P13.01A-P13.33A)</t>
+  </si>
+  <si>
+    <t>P14 New diagnostic approaches, technical aspects &amp; quality control (P14.001A – P14.107C)</t>
+  </si>
+  <si>
+    <t>P15 Personalized/Predictive Medicine and Pharmacogenomics (P15.01A-P15.50B)</t>
+  </si>
+  <si>
+    <t>P16 Omics/Bioinformatics (P16.01A-P16.79C)</t>
+  </si>
+  <si>
+    <t>P17 Epigenetics and Gene Regulation (P18.02B-P18.79C)</t>
+  </si>
+  <si>
+    <t>P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics (P18.02B-P18.79C)</t>
+  </si>
+  <si>
+    <t>P19 Genetic counselling/Education/public services (P19.01A-P19.43C)</t>
+  </si>
+  <si>
+    <t>P20 Psychological/Ethical/legal issues (P20.02B-P20.16D)</t>
+  </si>
+  <si>
+    <t>E-P01 Reproductive Genetics/Prenatal Genetics (E-P01.01-E-P01.57)</t>
+  </si>
+  <si>
+    <t>E-P02 Sensory disorders (eye, ear, pain) (E-P02.01-E-P02.17)</t>
+  </si>
+  <si>
+    <t>E-P03 Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal) (E-P03.01-E-P03.41)</t>
+  </si>
+  <si>
+    <t>E-P04 Skeletal, connective tissue, ectodermal and skin disorders (E-P04.02-E-P04.18)</t>
+  </si>
+  <si>
+    <t>E-P05 Cardiovascular disorders (E-P05.01-E-P05.32)</t>
+  </si>
+  <si>
+    <t>E-P06 Metabolic and mitochondrial disorders (E-P06.01-E-P06.17)</t>
+  </si>
+  <si>
+    <t>E-P07 Immunology and hematopoietic system (E-P07.01- E-P07.16)</t>
+  </si>
+  <si>
+    <t>E-P08 Intellectual Disability (E-P08.01- E-P08.37)</t>
+  </si>
+  <si>
+    <t>E-P09 Neurogenetic and psychiatric disorders (E-P09.01- E-P09.45)</t>
+  </si>
+  <si>
+    <t>E-P10 Neuromuscular disorders (E-P10.01- E-P10.11)</t>
+  </si>
+  <si>
+    <t>E-P11 Multiple Malformation/anomalies syndromes (E-P11.01- E-P11.90)</t>
+  </si>
+  <si>
+    <t>E-P12 Cancer genetics (E-P12.10- E-P12.43)</t>
+  </si>
+  <si>
+    <t>E-P13 Basic mechanisms in molecular and cytogenetics (E-P13.02- E-P13.17)</t>
+  </si>
+  <si>
+    <t>E-P14 New diagnostic approaches, technical aspects &amp; quality control (E-P14.01- E-P14.10)</t>
+  </si>
+  <si>
+    <t>E-P15 Personalized/Predictive Medicine and Pharmacogenomics (E-P15.03- E-P15.06)</t>
+  </si>
+  <si>
+    <t>E-P16 Omics/Bioinformatics (E-P16.01- E-P16.13)</t>
+  </si>
+  <si>
+    <t>E-P17 Epigenetics and Gene Regulation (E-P17.01- E-P17.02)</t>
+  </si>
+  <si>
+    <t>E-P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics (E-P18.01- E-P18.16)</t>
+  </si>
+  <si>
+    <t>E-P19 Genetic counselling/Education/public services (E-P19.01- E-P19.04)</t>
+  </si>
+  <si>
+    <t>EBPL1 Hopes and expectations on genome editing (EBPL1.1- EBPL1.4)</t>
+  </si>
+  <si>
+    <t>EBPL2 The Legal Side of Genomic Care (EBPL2.1- EBPL2.4)</t>
+  </si>
+  <si>
+    <t>EPL1 Ensuring good clinical practice in whole genome sequencing (EPL1.1- EPL1.6)</t>
+  </si>
+  <si>
+    <t>EPL2 Improving communication in genetic counselling (EPL2.1- EPL2.6)</t>
+  </si>
+  <si>
+    <t>EPL3 Educating Professionals and Public (EPL3.1- EPL3.6)</t>
+  </si>
+  <si>
+    <t>EPL4 What’s New in Hereditary Cancer (EPL4.1- EPL4.6)</t>
+  </si>
+  <si>
+    <t>EPL5 To know or not to know (EPL5.1- EPL5.6)</t>
+  </si>
+  <si>
+    <t>EPL6 Perinatal decision-making (EPL6.1- EPL6.6)</t>
+  </si>
+  <si>
+    <t>ES1 Communication of genetic information with and within families (ES1.1)</t>
+  </si>
+  <si>
+    <t>Posters Presentations (EMP1.01.A-EMP1.79C)</t>
+  </si>
+  <si>
+    <t>PL2 What’s New?</t>
+  </si>
+  <si>
+    <t>PL3 Mendel Award Lecture</t>
+  </si>
+  <si>
+    <t>PL4 ESHG Award Lecture</t>
+  </si>
+  <si>
+    <t>S02 Finding the strengths that make cancer cells weak</t>
+  </si>
+  <si>
+    <t>S03 RNA mis-splicing dynamics, diagnosis and treatment</t>
+  </si>
+  <si>
+    <t>S04 An update on kidney research</t>
+  </si>
+  <si>
+    <t>S05 Genome editing</t>
+  </si>
+  <si>
+    <t>S06 Thank you for the Variant (a personal utility tale)</t>
+  </si>
+  <si>
+    <t>S07 Polygenic risk scores coming of age</t>
+  </si>
+  <si>
+    <t>S08 Beware of the transposons</t>
+  </si>
+  <si>
+    <t>S09 Multidimensional nuclear organization</t>
+  </si>
+  <si>
+    <t>S10 From genome wide association study to mechanisms: fine-mapping</t>
+  </si>
+  <si>
+    <t>S11 De novo developments in epilepsia</t>
+  </si>
+  <si>
+    <t>S12 Congenital disorders of glycosylation</t>
+  </si>
+  <si>
+    <t>S13 Understanding mutations to detect cancer</t>
+  </si>
+  <si>
+    <t>S14 Debate: Genomics and the Media</t>
+  </si>
+  <si>
+    <t>S15 Regulatory Landscapes</t>
+  </si>
+  <si>
+    <t>S16 Methods for genetic epidemiology</t>
+  </si>
+  <si>
+    <t>S17 ESHG-ASHG Debate: Global collaboration to advance the use of genomics in health</t>
+  </si>
+  <si>
+    <t>S18 Our genetic history and its phenotypic consequences</t>
+  </si>
+  <si>
+    <t>S19 Treating rare genetic disease</t>
+  </si>
+  <si>
+    <t>S20 Epigenetics and early development</t>
+  </si>
+  <si>
+    <t>E01 New technologies (Sponsored by Illumina)</t>
+  </si>
+  <si>
+    <t>E02 Epigenetics and cancer</t>
+  </si>
+  <si>
+    <t>E03 Bridging genomic discoveries and personalized medicine</t>
+  </si>
+  <si>
+    <t>E04 Gene Expression Resources</t>
+  </si>
+  <si>
+    <t>E05 The longer the better? Third generation sequencing technologies</t>
+  </si>
+  <si>
+    <t>E06 Pharmacogenomic testing for personalized medicine</t>
+  </si>
+  <si>
+    <t>E07 Single-cell transcriptomics in the brain</t>
+  </si>
+  <si>
+    <t>E08 Chromosome Y loss and the ageing genome</t>
+  </si>
+  <si>
+    <t>E09 Variant interpretation and high-throughput functional assays</t>
+  </si>
+  <si>
+    <t>E10 Meiosis: factory of genetic variation</t>
+  </si>
+  <si>
+    <t>E11 Genome First Testing in Pediatrics</t>
+  </si>
+  <si>
+    <t>E12 Oligogenic inheritance</t>
+  </si>
+  <si>
+    <t>E13 Genetic innovations in reproductive medicine</t>
+  </si>
+  <si>
+    <t>C01 Novel diagnostic approaches</t>
+  </si>
+  <si>
+    <t>C02 3D gene regulation</t>
+  </si>
+  <si>
+    <t>C03 Neurogenetic and psychiatric disorders</t>
+  </si>
+  <si>
+    <t>C04 Fertility</t>
+  </si>
+  <si>
+    <t>C05 Developmental disorders 1</t>
+  </si>
+  <si>
+    <t>C06 Cellular dysfunctions</t>
+  </si>
+  <si>
+    <t>C07 Gene editing and reproduction</t>
+  </si>
+  <si>
+    <t>C08 Prenatal Genetics</t>
+  </si>
+  <si>
+    <t>C09 Cancer genetics</t>
+  </si>
+  <si>
+    <t>C10 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>C11 Statistical and population genetics</t>
+  </si>
+  <si>
+    <t>C12 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>C13 Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>C14 Genetic counselling developments</t>
+  </si>
+  <si>
+    <t>C16 Personalized and predictive medicine</t>
+  </si>
+  <si>
+    <t>C17 Genetic mechanisms in cancer</t>
+  </si>
+  <si>
+    <t>C18 Therapies</t>
+  </si>
+  <si>
+    <t>C19 From genome architecture to RNA biology</t>
+  </si>
+  <si>
+    <t>C20 Neuromuscular and neurodegenerative disorders</t>
+  </si>
+  <si>
+    <t>C21 Internal organs</t>
+  </si>
+  <si>
+    <t>C22 Ethical, policy and psychosocial aspects in genomics</t>
+  </si>
+  <si>
+    <t>C24 Mosaicisms</t>
+  </si>
+  <si>
+    <t>C25 Bioinformatics and multiomics</t>
+  </si>
+  <si>
+    <t>C26 Mitochondrial disorder</t>
+  </si>
+  <si>
+    <t>C27 Developmental disorders 2</t>
+  </si>
+  <si>
+    <t>C28 Late breaking abstracts</t>
+  </si>
+  <si>
+    <t>C29 Stakeholder perspectives in cancer genetics</t>
+  </si>
+  <si>
+    <t>P01 Reproductive Genetics/Prenatal Genetics</t>
+  </si>
+  <si>
+    <t>P02 Sensory disorders (eye, ear, pain)</t>
+  </si>
+  <si>
+    <t>P03 Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal)</t>
+  </si>
+  <si>
+    <t>P04 Skeletal, connective tissue, ectodermal and skin disorders</t>
+  </si>
+  <si>
+    <t>P05 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>P06 Metabolic and mitochondrial disorders</t>
+  </si>
+  <si>
+    <t>P07 Immunology and hematopoietic system</t>
+  </si>
+  <si>
+    <t>P08 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>P09 Neurogenetic and psychiatric disorders</t>
+  </si>
+  <si>
+    <t>P10 Neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>P11 Multiple Malformation/anomalies syndromes</t>
+  </si>
+  <si>
+    <t>P12 Cancer genetics</t>
+  </si>
+  <si>
+    <t>P13 Basic mechanisms in molecular and cytogenetics</t>
+  </si>
+  <si>
+    <t>P14 New diagnostic approaches, technical aspects &amp; quality control</t>
+  </si>
+  <si>
+    <t>P15 Personalized/Predictive Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>P16 Omics/Bioinformatics</t>
+  </si>
+  <si>
+    <t>P17 Epigenetics and Gene Regulation</t>
+  </si>
+  <si>
+    <t>P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics</t>
+  </si>
+  <si>
+    <t>P19 Genetic counselling/Education/public services</t>
+  </si>
+  <si>
+    <t>P20 Psychological/Ethical/legal issues</t>
+  </si>
+  <si>
+    <t>E-P01 Reproductive Genetics/Prenatal Genetics</t>
+  </si>
+  <si>
+    <t>E-P02 Sensory disorders (eye, ear, pain)</t>
+  </si>
+  <si>
+    <t>E-P03 Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal)</t>
+  </si>
+  <si>
+    <t>E-P04 Skeletal, connective tissue, ectodermal and skin disorders</t>
+  </si>
+  <si>
+    <t>E-P05 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>E-P06 Metabolic and mitochondrial disorders</t>
+  </si>
+  <si>
+    <t>E-P07 Immunology and hematopoietic system</t>
+  </si>
+  <si>
+    <t>E-P08 Intellectual Disability</t>
+  </si>
+  <si>
+    <t>E-P09 Neurogenetic and psychiatric disorders</t>
+  </si>
+  <si>
+    <t>E-P10 Neuromuscular disorders</t>
+  </si>
+  <si>
+    <t>E-P11 Multiple Malformation/anomalies syndromes</t>
+  </si>
+  <si>
+    <t>E-P12 Cancer genetics</t>
+  </si>
+  <si>
+    <t>E-P13 Basic mechanisms in molecular and cytogenetics</t>
+  </si>
+  <si>
+    <t>E-P14 New diagnostic approaches, technical aspects &amp; quality control</t>
+  </si>
+  <si>
+    <t>E-P15 Personalized/Predictive Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>E-P16 Omics/Bioinformatics</t>
+  </si>
+  <si>
+    <t>E-P17 Epigenetics and Gene Regulation</t>
+  </si>
+  <si>
+    <t>E-P18 Genetic epidemiology/Population genetics/Statistical methodology and evolutionary genetics</t>
+  </si>
+  <si>
+    <t>E-P19 Genetic counselling/Education/public service</t>
+  </si>
+  <si>
+    <t>EBPL2 The legal side of Genomic Care</t>
+  </si>
+  <si>
+    <t>EPL1 Ensuring good clinical practice in whole genome sequencing</t>
+  </si>
+  <si>
+    <t>EPL2 Improving communication in genetic counselling</t>
+  </si>
+  <si>
+    <t>EPL3 Educating Professionals and Public</t>
+  </si>
+  <si>
+    <t>EPL4 What's New in Hereditary Cancer</t>
+  </si>
+  <si>
+    <t>EPL5 To know or not to know</t>
+  </si>
+  <si>
+    <t>EPL6 Perinatal decision-making</t>
+  </si>
+  <si>
+    <t>ES1 Communication of genetic information with and within families</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>Sensory Disorders (Eye, Ear, Pain)</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>Internal Organs &amp; Endocrinology (Lung, Kidney, Liver, Gastrointestinal)</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Skeletal, Connetive Tissue, Ectodermal and Skin Disorders</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disorders</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>Metabolic and Mitochondrial Disorders</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>Immunology and Hematopoietic System</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>Intellectual Disability</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>Neurogenetic and Psychiatric Disorders</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>Neuromuscular Disorders</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Multiple Malformation/Anomalies Syndromes</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>Genome Variation and Architecture</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>New Technologies and Approaches</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>Diagnostic Improvements and Quality Control</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>Bioinformatics and Statistical Methods</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>Personalized Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>Genetic Epidemiology, Population Genetics and Evolutionary Genetics</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Functional Genomics and Epigenomics</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>New Treatments for Genetic Disorders</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>Genetic Counselling / Services / Education</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>Ethical, Legal and Psychosocial Aspects in Genetics</t>
+  </si>
+  <si>
+    <t>PL1 Opening Plenary</t>
+  </si>
+  <si>
+    <t>PL2 What’s New? Highlight Session</t>
+  </si>
+  <si>
+    <t>PL4 Mendel Award Lecture</t>
+  </si>
+  <si>
+    <t>Concurrent symposia</t>
+  </si>
+  <si>
+    <t>S01 Machine learning methods for prioritising genetic variants</t>
+  </si>
+  <si>
+    <t>S02 Spatial omics</t>
+  </si>
+  <si>
+    <t>S03 Transposons</t>
+  </si>
+  <si>
+    <t>S04 Impact of GDPR on genomic data sharing</t>
+  </si>
+  <si>
+    <t>S05 Endogenous and exogenous mutagenesis in cancer</t>
+  </si>
+  <si>
+    <t>S06 Comparative genomics across species and populations</t>
+  </si>
+  <si>
+    <t>S07 Mind the gap: Translating genomic advances into clinical care</t>
+  </si>
+  <si>
+    <t>S08 Single cell genomics in cancer</t>
+  </si>
+  <si>
+    <t>S09 Biobanks in under-represented populations</t>
+  </si>
+  <si>
+    <t>S10 Gene-based therapy for inherited liver diseases</t>
+  </si>
+  <si>
+    <t>S11 Prevention, detection, and therapy in cancer</t>
+  </si>
+  <si>
+    <t>S12 Functional annotation of genomic variation</t>
+  </si>
+  <si>
+    <t>S13 Beauty of gametogenesis</t>
+  </si>
+  <si>
+    <t>S14 Genome architecture</t>
+  </si>
+  <si>
+    <t>S15 Cells competing cells - mosaicism and cancer</t>
+  </si>
+  <si>
+    <t>S16 ESHG-ASHG Building Bridges: Global genetics towards a socially just practice</t>
+  </si>
+  <si>
+    <t>S17 Biases in genetic studies: Estimation and impact</t>
+  </si>
+  <si>
+    <t>S18 Overgrowth syndromes, from discovery to therapy</t>
+  </si>
+  <si>
+    <t>S20 Counselling Over Various Informatic Devices: Lessons from Covid-19</t>
+  </si>
+  <si>
+    <t>S21 Delivering the promise of RNA therapeutics</t>
+  </si>
+  <si>
+    <t>S22 Integrated approaches for ciliopathies</t>
+  </si>
+  <si>
+    <t>Educational sessions</t>
+  </si>
+  <si>
+    <t>E01 New technologies</t>
+  </si>
+  <si>
+    <t>E02 ESHG-Y: Human organoids as genetic disease models</t>
+  </si>
+  <si>
+    <t>E03 Translational collaborations in hereditary cancer</t>
+  </si>
+  <si>
+    <t>E04 Dealing with uncertainty in genomic medicine</t>
+  </si>
+  <si>
+    <t>E05 Update on imprinting disorders</t>
+  </si>
+  <si>
+    <t>E06 Pharmacogenomics in the clinic</t>
+  </si>
+  <si>
+    <t>E08 Variant interpretation in the clinic</t>
+  </si>
+  <si>
+    <t>E09 What’s new in preimplantation genetic testing?</t>
+  </si>
+  <si>
+    <t>E11 Polygenic risks and me</t>
+  </si>
+  <si>
+    <t>E12 Bayesian methods applied in clinical settings</t>
+  </si>
+  <si>
+    <t>E13 Mapping the human body at the cellular level</t>
+  </si>
+  <si>
+    <t>E14 DNA methylation in Mendelian diseases</t>
+  </si>
+  <si>
+    <t>E15 Selection and population structure in biobank scale data</t>
+  </si>
+  <si>
+    <t>E16 Advances in Mendelian randomisation</t>
+  </si>
+  <si>
+    <t>E17 Chromosomal instability across lifetime</t>
+  </si>
+  <si>
+    <t>E18 Introduction to statistical analysis of genome-wide association studies (GWAS)</t>
+  </si>
+  <si>
+    <t>E19 Precision medicine in underserved populations</t>
+  </si>
+  <si>
+    <t>Concurrent sessions</t>
+  </si>
+  <si>
+    <t>C01 Developmental disorders &amp; syndromes I</t>
+  </si>
+  <si>
+    <t>C02 Cardiovascular disorders</t>
+  </si>
+  <si>
+    <t>C03 Bioinformatics, machine learning and statistical methods</t>
+  </si>
+  <si>
+    <t>C04 Unraveling the complexity of neuropsychiatric genetics</t>
+  </si>
+  <si>
+    <t>C05 Reproduction is hot!</t>
+  </si>
+  <si>
+    <t>C06 COVID-19 Genomics</t>
+  </si>
+  <si>
+    <t>C07 Novel insights in inherited metabolic diseases</t>
+  </si>
+  <si>
+    <t>C08 Skeletal and connective tissue disorders</t>
+  </si>
+  <si>
+    <t>C09 Sensory disorders: multi-omics and long-read sequencing</t>
+  </si>
+  <si>
+    <t>C10 Genome-wide Association Studies</t>
+  </si>
+  <si>
+    <t>C11 New technologies and better diagnostics</t>
+  </si>
+  <si>
+    <t>C12 Counselling, communication and service delivery</t>
+  </si>
+  <si>
+    <t>C13 Cancer susceptibility: From mechanisms to clinic</t>
+  </si>
+  <si>
+    <t>C14 Advances in neurogenetics: From diagnosis to treatment</t>
+  </si>
+  <si>
+    <t>C15 Pleiotropic diseases: diagnosis and mechanisms</t>
+  </si>
+  <si>
+    <t>C16 Monogenic neurodevelopmental disorders</t>
+  </si>
+  <si>
+    <t>C17 Population genetics and genetic epidemiology</t>
+  </si>
+  <si>
+    <t>C18 Functional genomics and transcriptomics</t>
+  </si>
+  <si>
+    <t>C19 ELSI in genomics</t>
+  </si>
+  <si>
+    <t>C20 From mechanisms to therapeutic insights in cancer</t>
+  </si>
+  <si>
+    <t>C21 Clinical immunology and novel therapies of genetic diseases</t>
+  </si>
+  <si>
+    <t>C22 Developmental disorders &amp; syndromes II</t>
+  </si>
+  <si>
+    <t>C23 Internal organs - Kidney, bowel, fat</t>
+  </si>
+  <si>
+    <t>C24 Genome variation and architecture</t>
+  </si>
+  <si>
+    <t>C25 Using genomics to personalise medicine</t>
+  </si>
+  <si>
+    <t>C26 Late Breaking</t>
+  </si>
+  <si>
+    <t>P02 Sensory Disorders (Eye, Ear, Pain)</t>
+  </si>
+  <si>
+    <t>P03 Internal Organs &amp; Endocrinology (Lung, Kidney, Liver, Gastrointestinal)</t>
+  </si>
+  <si>
+    <t>P04 Skeletal, Connective Tissue, Ectodermal and Skin Disorders</t>
+  </si>
+  <si>
+    <t>P05 Cardiovascular Disorders</t>
+  </si>
+  <si>
+    <t>P06 Metabolic and Mitochondrial Disorders</t>
+  </si>
+  <si>
+    <t>P07 Immunology and Hematopoietic System</t>
+  </si>
+  <si>
+    <t>P09 Neurogenetic and Psychiatric Disorders</t>
+  </si>
+  <si>
+    <t>P10 Neuromuscular Disorders</t>
+  </si>
+  <si>
+    <t>P11 Multiple Malformation/Anomalies Syndromes</t>
+  </si>
+  <si>
+    <t>P12 Cancer Genetics</t>
+  </si>
+  <si>
+    <t>P13 Genome Variation and Architecture</t>
+  </si>
+  <si>
+    <t>P14 Cytogenetics</t>
+  </si>
+  <si>
+    <t>P15 New Technologies and Approaches</t>
+  </si>
+  <si>
+    <t>P16 Diagnostic Improvements and Quality Control</t>
+  </si>
+  <si>
+    <t>P17 Bioinformatics, Machine Learning and Statistical Methods</t>
+  </si>
+  <si>
+    <t>P18 Personalised Medicine and Pharmacogenomics</t>
+  </si>
+  <si>
+    <t>P19 Population Genetics and Evolutionary Genetics</t>
+  </si>
+  <si>
+    <t>P20 Functional Genomics and Epigenomics</t>
+  </si>
+  <si>
+    <t>P21 New Treatments for Genetic Disorders</t>
+  </si>
+  <si>
+    <t>P22 Genetic Counselling/Services/Education</t>
+  </si>
+  <si>
+    <t>P23 Ethical, Legal and Psychosocial Aspects in Genetics</t>
+  </si>
+  <si>
+    <t>P24 GWAS</t>
+  </si>
+  <si>
+    <t>P25 COVID-19</t>
+  </si>
+  <si>
+    <t>P0280</t>
+  </si>
+  <si>
+    <t>P0429</t>
+  </si>
+  <si>
+    <t>P0490</t>
+  </si>
+  <si>
+    <t>P0629</t>
+  </si>
+  <si>
+    <t>P0892</t>
+  </si>
+  <si>
+    <t>P1126</t>
+  </si>
+  <si>
+    <t>P1225</t>
+  </si>
+  <si>
+    <t>P1305</t>
+  </si>
+  <si>
+    <t>P1397</t>
+  </si>
+  <si>
+    <t>P0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0428a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0489 </t>
+  </si>
+  <si>
+    <t>P0628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1224 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1396 </t>
+  </si>
+  <si>
+    <t>P1413</t>
+  </si>
+  <si>
+    <t>P03. Cytogenetics.P03.001 – P03.202101</t>
+  </si>
+  <si>
+    <t>PL1.1</t>
+  </si>
+  <si>
+    <t>Plenary Lectures</t>
+  </si>
+  <si>
+    <t>S01.1</t>
+  </si>
+  <si>
+    <t>S15.3.5</t>
+  </si>
+  <si>
+    <t>PL3.3.2</t>
+  </si>
+  <si>
+    <t>C01.1</t>
+  </si>
+  <si>
+    <t>C18.615</t>
+  </si>
+  <si>
+    <t>C01.1 – C18.615</t>
+  </si>
+  <si>
+    <t>P01.01</t>
+  </si>
+  <si>
+    <t>P01.4943</t>
+  </si>
+  <si>
+    <t>P01. Genetic counseling, including Psychosocial aspects, Genetics education, Genetic services, and Public policy</t>
+  </si>
+  <si>
+    <t>P02.001</t>
+  </si>
+  <si>
+    <t>P02.203.54</t>
+  </si>
+  <si>
+    <t>P02. Clinical genetics and Dysmorphology</t>
+  </si>
+  <si>
+    <t>P03.202101</t>
+  </si>
+  <si>
+    <t>P03.001</t>
+  </si>
+  <si>
+    <t>P04. Reproductive genetics</t>
+  </si>
+  <si>
+    <t>P05.01</t>
+  </si>
+  <si>
+    <t>P05.62.152</t>
+  </si>
+  <si>
+    <t>P05. Prenatal and perinatal genetics</t>
+  </si>
+  <si>
+    <t>P04.01</t>
+  </si>
+  <si>
+    <t>P04.33.145</t>
+  </si>
+  <si>
+    <t>P0413</t>
+  </si>
+  <si>
+    <t>P0491</t>
+  </si>
+  <si>
+    <t>P0616</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>P1182</t>
+  </si>
+  <si>
+    <t>P1269</t>
+  </si>
+  <si>
+    <t>P0340</t>
+  </si>
+  <si>
+    <t>P2000</t>
+  </si>
+  <si>
+    <t>EP13</t>
+  </si>
+  <si>
+    <t>EP18</t>
+  </si>
+  <si>
+    <t>EP44</t>
+  </si>
+  <si>
+    <t>EP51</t>
+  </si>
+  <si>
+    <t>EP66</t>
+  </si>
+  <si>
+    <t>EP17</t>
+  </si>
+  <si>
+    <t>EP30</t>
+  </si>
+  <si>
+    <t>EP43</t>
+  </si>
+  <si>
+    <t>EP50</t>
+  </si>
+  <si>
+    <t>EP65</t>
+  </si>
+  <si>
+    <t>EP99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01.001–P01.370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02.001–P02.242 </t>
+  </si>
+  <si>
+    <t>P03.01–P03.77</t>
+  </si>
+  <si>
+    <t>P04.001–P04.207</t>
+  </si>
+  <si>
+    <t>P05.001–P05.216</t>
+  </si>
+  <si>
+    <t>P06.001–P06.326</t>
+  </si>
+  <si>
+    <t>P07.001–P07.139</t>
+  </si>
+  <si>
+    <t>P08.01–P08.87</t>
+  </si>
+  <si>
+    <t>P09.01–P09.73</t>
+  </si>
+  <si>
+    <t>P10.01–P10.28</t>
+  </si>
+  <si>
+    <t>EPL1.1–EPL6.5</t>
+  </si>
+  <si>
+    <t>EW1.1–EW4.1</t>
+  </si>
+  <si>
+    <t>EP01.01–EP01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP02.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP03.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP04.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P01.370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02.242 </t>
+  </si>
+  <si>
+    <t>P03.77</t>
+  </si>
+  <si>
+    <t>P04.207</t>
+  </si>
+  <si>
+    <t>P05.216</t>
+  </si>
+  <si>
+    <t>P06.326</t>
+  </si>
+  <si>
+    <t>P07.139</t>
+  </si>
+  <si>
+    <t>P08.87</t>
+  </si>
+  <si>
+    <t>P09.73</t>
+  </si>
+  <si>
+    <t>P10.28</t>
+  </si>
+  <si>
+    <t>EPL6.5</t>
+  </si>
+  <si>
+    <t>EW4.1</t>
+  </si>
+  <si>
+    <t>EP01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EP02.9</t>
+  </si>
+  <si>
+    <t>EP03.9</t>
+  </si>
+  <si>
+    <t>EP04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP05.4 </t>
+  </si>
+  <si>
+    <t>EP05.1</t>
+  </si>
+  <si>
+    <t>EP06.1</t>
+  </si>
+  <si>
+    <t>EP07.1</t>
+  </si>
+  <si>
+    <t>EP08.1</t>
+  </si>
+  <si>
+    <t>EP09.1</t>
+  </si>
+  <si>
+    <t>EP10.01</t>
+  </si>
+  <si>
+    <t>EP11.1</t>
+  </si>
+  <si>
+    <t>EP12.1</t>
+  </si>
+  <si>
+    <t>EP13.1</t>
+  </si>
+  <si>
+    <t>EP14.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP06.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP07.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP08.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP09.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP10.24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP11.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP12.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP13.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP14.23 </t>
+  </si>
+  <si>
+    <t>EP01. Reproductive issues in genetics</t>
+  </si>
+  <si>
+    <t>EP02. Genetic risk and testing: impact on men</t>
+  </si>
+  <si>
+    <t>EP03. Genetic risk and testing: carriers of x-linked conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP04. Genetic conditions: impact on significant others </t>
+  </si>
+  <si>
+    <t>EP05. Access to genetic services (challenges in Europe)</t>
+  </si>
+  <si>
+    <t>EP06. Lay beliefs and public understanding of genetics</t>
+  </si>
+  <si>
+    <t>EP07. Disclosure of test results (professionals/patients/families/third parties)</t>
+  </si>
+  <si>
+    <t>EP08. Predictive testing: process and impact</t>
+  </si>
+  <si>
+    <t>EP09. Predisposition to common diseases: genetic testing and preventive behaviour</t>
+  </si>
+  <si>
+    <t>EP10. Genetic counselling: communicating genetic information</t>
+  </si>
+  <si>
+    <t>EP11. Strategies to facilitate decision making in genetics</t>
+  </si>
+  <si>
+    <t>EP12. Family dynamics and genetic conditions</t>
+  </si>
+  <si>
+    <t>EP13. Living with genetic disease</t>
+  </si>
+  <si>
+    <t>EP14. Other relevant psychological and social topics in genetics</t>
+  </si>
+  <si>
+    <t>Plenary Lectures.PL1.1 – PL5.1.5</t>
+  </si>
+  <si>
+    <t>Concurrent SymposiaS01.1 – S16.3.9</t>
+  </si>
+  <si>
+    <t>Genetic services, and Public policy.P01.01 – P01.84 49</t>
+  </si>
+  <si>
+    <t>P04. Reproductive geneticsP04.01 – P04.59. 159</t>
+  </si>
+  <si>
+    <t>P05. Prenatal and perinatal genetics.P05.01 – P05.56. 174</t>
+  </si>
+  <si>
+    <t>P07. Cancer cytogeneticsP07.01 – P07.28. 239</t>
+  </si>
+  <si>
+    <t>P08. Statistical genetics, includes Mapping, linkage and association methodsP08.01 – P08.75. 247</t>
+  </si>
+  <si>
+    <t>P10. Evolutionary and population genetics, and Genetic epidemiologyP10.01 – P10.82. 327</t>
+  </si>
+  <si>
+    <t>P14. Therapy for genetic disorders.P14.01 – P14.22. 475</t>
+  </si>
+  <si>
+    <t>Plenary Lectures.PL1.1 – PL5.1. 4</t>
+  </si>
+  <si>
+    <t>Concurrent SymposiaS01.1 – S16.3. 7</t>
+  </si>
+  <si>
+    <t>Educational SessionsES1.1 – ES8.2 14</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C18.6 16</t>
+  </si>
+  <si>
+    <t>Genetic services, and Public policy.P01.01 – P01.37. 43</t>
+  </si>
+  <si>
+    <t>P03. Cytogenetics.P03.001 – P03.145. 105</t>
+  </si>
+  <si>
+    <t>P04. Reproductive geneticsP04.01 – P04.58 133</t>
+  </si>
+  <si>
+    <t>P05. Prenatal and perinatal genetics.P05.01 – P05.70 143</t>
+  </si>
+  <si>
+    <t>P07. Cancer cytogeneticsP07.01 – P07.34 201</t>
+  </si>
+  <si>
+    <t>P08. Statistical genetics, includes Mapping, linkage and association methodsP08.01 – P08.45 208</t>
+  </si>
+  <si>
+    <t>P10. Evolutionary and population genetics, and Genetic epidemiologyP10.01 – P10.59 248</t>
+  </si>
+  <si>
+    <t>P14. Therapy for genetic disorders.P14.01 – P14.23 352</t>
+  </si>
+  <si>
+    <t>EMPAG Plenary Lectures.EPL1.1 – EPL7.6 417</t>
+  </si>
+  <si>
+    <t>Educational SessionsES1.1 – ES9.2 15</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C20.6 19</t>
+  </si>
+  <si>
+    <t>P02 Multiple Malformation/anomalies syndromes P02.001 – 139 85</t>
+  </si>
+  <si>
+    <t>P03 Sensory disorders (Eye, ear, pain)  P03.01 – 48 119</t>
+  </si>
+  <si>
+    <t>P06 Psychiatric disorders P06.01 – 49 191</t>
+  </si>
+  <si>
+    <t>P10 Metabolic and mitochondrial disorders P10.01 – 85 243</t>
+  </si>
+  <si>
+    <t>P11 Cancer genetics P11.001 – 244. 265</t>
+  </si>
+  <si>
+    <t>P13 New diagnostic approaches (NGS screening) in heterogeneous disorders. P13.01 – 94 331</t>
+  </si>
+  <si>
+    <t>P14 New techniques / concepts P14.01 – 37 354</t>
+  </si>
+  <si>
+    <t>P15 Omics/Bioinformatics/Epigenetics. P15.01 – 76 362</t>
+  </si>
+  <si>
+    <t>P18 Genetic counselling/Education/public services P18.01 – 88 407</t>
+  </si>
+  <si>
+    <t>P20 Basic mechanisms in molecular and cytogenetics P20.01 – 63 449</t>
+  </si>
+  <si>
+    <t>Concurrent SymposiaS01.1 – S19.3. 7</t>
+  </si>
+  <si>
+    <t>Educational SessionsES1.1 – ES8.2 15</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C22.6 19</t>
+  </si>
+  <si>
+    <t>P12. Cancer genetics.P12.001-143 237</t>
+  </si>
+  <si>
+    <t>EP. EMPAG PostersEP01-52 360</t>
+  </si>
+  <si>
+    <t>Concurrent SymposiaS01.1 – S16.3. 6</t>
+  </si>
+  <si>
+    <t>Educational SessionsES1.1 – ES9.2 14</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C23.6 17</t>
+  </si>
+  <si>
+    <t>P01. Reproductive Genetics/Prenatal Genetics.P01.01-91. 52</t>
+  </si>
+  <si>
+    <t>P04. Skeletal, Connective Tissue, Ectodermal and Skin Disorders.P04.01-78. 94</t>
+  </si>
+  <si>
+    <t>P05. Cardiovascular DisordersP05.01-85111</t>
+  </si>
+  <si>
+    <t>P11. Multiple Malformation/Anomalies SyndromesP11.001-138 205</t>
+  </si>
+  <si>
+    <t>P14. New Diagnostic Approaches, Technical Aspects &amp; Quality ControlP14.001-110 275</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C24.6 16</t>
+  </si>
+  <si>
+    <t>P01. Reproductive Genetics/Prenatal GeneticsP01.01-104 52</t>
+  </si>
+  <si>
+    <t>P11. Multiple Malformation/Anomalies SyndromesP11.001-162 222</t>
+  </si>
+  <si>
+    <t>P14. New Diagnostic Approaches, Technical Aspects &amp; Quality ControlP14.001-104 311</t>
+  </si>
+  <si>
+    <t>Evolutionary GeneticsP18.001-105 369</t>
+  </si>
+  <si>
+    <t>Educational Sessions ES1.1 – ES9.218</t>
+  </si>
+  <si>
+    <t>Concurrent Sessions.C01.1 – C17.622</t>
+  </si>
+  <si>
+    <t>P02. Clinical genetics and DysmorphologyP02.001 – P02.253. 68</t>
+  </si>
+  <si>
+    <t>P03. Cytogenetics.P03.001 – P03.100 130</t>
+  </si>
+  <si>
+    <t>P06. Cancer geneticsP06.001 – P06.211 188</t>
+  </si>
+  <si>
+    <t>P09. Complex traits and polygenic disordersP09.001 – P09.235 265</t>
+  </si>
+  <si>
+    <t>structure and gene product function and EpigeneticsP11.001 – P11.159 347</t>
+  </si>
+  <si>
+    <t>P12. Molecular basis of Mendelian disordersP12.001 – P12.253 387</t>
+  </si>
+  <si>
+    <t>P13. Metabolic disordersP13.01 – P13.62. 456</t>
+  </si>
+  <si>
+    <t>P15. Laboratory and quality managementP15.01 – P15.17. 480</t>
+  </si>
+  <si>
+    <t>P02. Clinical genetics and DysmorphologyP02.001 – P02.265 50</t>
+  </si>
+  <si>
+    <t>P06. Cancer geneticsP06.001 – P06.218. 157</t>
+  </si>
+  <si>
+    <t>P09. Complex traits and polygenic disordersP09.001 – P09.142. 218</t>
+  </si>
+  <si>
+    <t>structure and gene product function and Epigenetics. P11.001 – P11.142 261</t>
+  </si>
+  <si>
+    <t>P12. Molecular basis of Mendelian disordersP12.001 – P12.265. 289</t>
+  </si>
+  <si>
+    <t>P13. Metabolic disordersP13.01 – P13.50 342</t>
+  </si>
+  <si>
+    <t>P15. Laboratory and quality managementP15.01 – P15.15 357</t>
+  </si>
+  <si>
+    <t>EMPAG WorkshopsEW1 - EW2. 426</t>
+  </si>
+  <si>
+    <t>EP1 Psychosocial issues in neurodegenerative diseases.EP1.01-03 427</t>
+  </si>
+  <si>
+    <t>EP2 Communicating genetic informationEP2.01-07 427</t>
+  </si>
+  <si>
+    <t>EP3 Reproductive decision makingEP3.01-02 429</t>
+  </si>
+  <si>
+    <t>EP4 Living with genetic disease. EP4.01-03 429</t>
+  </si>
+  <si>
+    <t>EP5 Psychosocial issues in cancer geneticsEP5.01-12 430</t>
+  </si>
+  <si>
+    <t>EP6 Education and professional development.EP6.01-08 433</t>
+  </si>
+  <si>
+    <t>EP7 Access to genetic servicesEP7.01-03 434</t>
+  </si>
+  <si>
+    <t>EP8 Ethical issuesEP8.01-06 435</t>
+  </si>
+  <si>
+    <t>P01 Skeletal, connective tissue, vascular, ectodermal and skin disorders P01.001 – 138 53</t>
+  </si>
+  <si>
+    <t>P04 Internal organs and endocrinology (heart, kidney, liver, gastrointestinal)  P04.01 – 97 131</t>
+  </si>
+  <si>
+    <t>P05 Intellectual Disability P05.001 – 145. 156</t>
+  </si>
+  <si>
+    <t>P07 Neuromuscular disorders P07.01 – 42 203</t>
+  </si>
+  <si>
+    <t>P08 Neurodegenerative disorders P08.01 – 99 213</t>
+  </si>
+  <si>
+    <t>P09 Immunology P09.01 – 25 237</t>
+  </si>
+  <si>
+    <t>P12 Technical aspects and quality control P12.01 – 33 323</t>
+  </si>
+  <si>
+    <t>P16 Genetic epidemiology/Population genetics/Statistical methodology P16.001 – 114. 379</t>
+  </si>
+  <si>
+    <t>P17 Evolutionary genetics. P17.1 – 6 406</t>
+  </si>
+  <si>
+    <t>P19 Reproductive Genetics / Prenatal Genetics P19.01 – 90 427</t>
+  </si>
+  <si>
+    <t>EMPAG Educational Sessions. EES1.1 – EES2.1 349</t>
+  </si>
+  <si>
+    <t>EMPAG Plenary LecturesEP1.1 – EPL9.6. 349</t>
+  </si>
+  <si>
+    <t>P01. Reproductive Genetics/Prenatal GeneticsP01.002-128 51</t>
+  </si>
+  <si>
+    <t>P02. Sensory disorders (eye, ear, pain) P02.01-49. 76</t>
+  </si>
+  <si>
+    <t>P03. Internal organs &amp; endocrinology (lung, kidney, liver, gastrointestinal) P03.01-49. 86</t>
+  </si>
+  <si>
+    <t>P04. Skeletal, connective tissue, ectodermal and skin disordersP04.01-73. 96</t>
+  </si>
+  <si>
+    <t>P05. Cardiovascular disorders.P05.01-67 112</t>
+  </si>
+  <si>
+    <t>P06. Metabolic and mitochondrial disorders.P06.01-61 127</t>
+  </si>
+  <si>
+    <t>P07. Immunology and hematopoietic systemP07.01-43 140</t>
+  </si>
+  <si>
+    <t>P08. Intellectual DisabilityP08.01-81 148</t>
+  </si>
+  <si>
+    <t>P09. Neurogenetic disordersP09.001-154 165</t>
+  </si>
+  <si>
+    <t>P10. Neuromuscular disorders.P10.01-42 197</t>
+  </si>
+  <si>
+    <t>P11. Multiple Malformation/anomalies syndromesP11.001-154 205</t>
+  </si>
+  <si>
+    <t>P13. Basic mechanisms in molecular and cytogenetics.P13.01-49 266</t>
+  </si>
+  <si>
+    <t>P14. New diagnostic approaches, technical aspects &amp; quality controlP14.01-97 276</t>
+  </si>
+  <si>
+    <t>P15. Personalized/Predictive Medicine and PharmacogenomicsP15.01-39 296</t>
+  </si>
+  <si>
+    <t>P16. Omics/Bioinformatics/EpigeneticsP16.01-78 304</t>
+  </si>
+  <si>
+    <t>and evolutionary geneticsP17.01-95 320</t>
+  </si>
+  <si>
+    <t>P18. Genetic counselling/Education/public services.P18.01-48 338</t>
+  </si>
+  <si>
+    <t>P02. Sensory Disorders (Eye, Ear, Pain) P02.01-62. 72</t>
+  </si>
+  <si>
+    <t>P03. Internal Organs &amp; Endocrinology (Lung, Kidney, Liver, Gastrointestinal) P03.01-41. 85</t>
+  </si>
+  <si>
+    <t>P06. Metabolic and Mitochondrial DisordersP06.01-70 129</t>
+  </si>
+  <si>
+    <t>P07. Immunology and Hematopoetic System.P07.01-25 145</t>
+  </si>
+  <si>
+    <t>P08. Intellectual Disability.P08.01-73 151</t>
+  </si>
+  <si>
+    <t>P09. Neurogenetic and Psychiatric DisordersP09.001-138 166</t>
+  </si>
+  <si>
+    <t>P10. Neuromuscular DisordersP10.01-40 196</t>
+  </si>
+  <si>
+    <t>P12. Cancer GeneticsP12.001-146 236</t>
+  </si>
+  <si>
+    <t>P13. Basic Mechanisms In Molecular and CytogeneticsP13.01-41 267</t>
+  </si>
+  <si>
+    <t>P15. Personalized/Predictive Medicine and Pharmacogenomics.P15.01-36 298</t>
+  </si>
+  <si>
+    <t>P16. Omics/BioinformaticsP16.01-63 307</t>
+  </si>
+  <si>
+    <t>P17. Epigenetics and Gene Regulation.P17.01-37 320</t>
+  </si>
+  <si>
+    <t>Evolutionary GeneticsP18.01-96 328</t>
+  </si>
+  <si>
+    <t>P19 Genetic Counselling/Education/Public Services.P19.01-59 349</t>
+  </si>
+  <si>
+    <t>P20. Psychological/Ethical/Legal IssuesP20.01-28 361</t>
+  </si>
+  <si>
+    <t>Educational SessionsE1.1 – E8.2 14</t>
+  </si>
+  <si>
+    <t>P02. Sensory Disorders (Eye, Ear, Pain)P02.01-43. 74</t>
+  </si>
+  <si>
+    <t>P03. Internal Organs &amp; Endocrinology (Lung, Kidney, Liver, Gastrointestinal)P03.01-41. 84</t>
+  </si>
+  <si>
+    <t>P04. Skeletal, Connective Tissue, Ectodermal and Skin DisordersP04.001-104 93</t>
+  </si>
+  <si>
+    <t>P05. Cardiovascular DisordersP05.01-74 116</t>
+  </si>
+  <si>
+    <t>P06. Metabolic and Mitochondrial DisordersP06.01-76 133</t>
+  </si>
+  <si>
+    <t>P07. Immunology and Hematopoetic System.P07.01-30 149</t>
+  </si>
+  <si>
+    <t>P08. Intellectual DisabilityP08.01-93 155</t>
+  </si>
+  <si>
+    <t>P09. Neurogenetic and Psychiatric DisordersP09.001-152 177</t>
+  </si>
+  <si>
+    <t>P10. Neuromuscular DisordersP10.01-52 211</t>
+  </si>
+  <si>
+    <t>P12. Cancer GeneticsP12.001-196 258</t>
+  </si>
+  <si>
+    <t>P13. Basic Mechanisms In Molecular and CytogeneticsP13.01-49 301</t>
+  </si>
+  <si>
+    <t>P15. Personalized/Predictive Medicine and Pharmacogenomics.P15.01-37 332</t>
+  </si>
+  <si>
+    <t>P16. Omics/BioinformaticsP16.01-91 340</t>
+  </si>
+  <si>
+    <t>P17. Epigenetics and Gene RegulationP17.01-51 359</t>
+  </si>
+  <si>
+    <t>P19 Genetic Counselling/Education/Public Services.P19.01-53 391</t>
+  </si>
+  <si>
+    <t>P20. Psychological/Ethical/Legal IssuesP20.01-25 402</t>
+  </si>
+  <si>
+    <t>P12. Molecular basis of Mendelian disorders</t>
+  </si>
+  <si>
+    <t>P11. Genomics, Genomic technology including bioinformatics methods ,gene structure and gene product function and Epigenetics</t>
+  </si>
+  <si>
+    <t>P03. Cytogenetics</t>
+  </si>
+  <si>
+    <t>P06. Cancer genetics</t>
+  </si>
+  <si>
+    <t>P06.208166</t>
+  </si>
+  <si>
+    <t>PL5.1. 4</t>
+  </si>
+  <si>
+    <t>S15.3 7</t>
+  </si>
+  <si>
+    <t>ES8.2 16</t>
+  </si>
+  <si>
+    <t>C16.6 18</t>
+  </si>
+  <si>
+    <t>P01.68 43</t>
+  </si>
+  <si>
+    <t>P02.203 58</t>
+  </si>
+  <si>
+    <t>P03.136 103</t>
+  </si>
+  <si>
+    <t>P04.44. 134</t>
+  </si>
+  <si>
+    <t>P05.70. 144</t>
+  </si>
+  <si>
+    <t>P06.158 160</t>
+  </si>
+  <si>
+    <t>P07.12.213</t>
+  </si>
+  <si>
+    <t>P08.67.216</t>
+  </si>
+  <si>
+    <t>P09.130231</t>
+  </si>
+  <si>
+    <t>P10.90.262</t>
+  </si>
+  <si>
+    <t>P11.126 .281</t>
+  </si>
+  <si>
+    <t>P12.169308</t>
+  </si>
+  <si>
+    <t>P13.49.347</t>
+  </si>
+  <si>
+    <t>P14.23.359</t>
+  </si>
+  <si>
+    <t>P15.14.364</t>
+  </si>
+  <si>
+    <t>P16.54.368</t>
+  </si>
+  <si>
+    <t>P06.001</t>
+  </si>
+  <si>
+    <t>P07.01</t>
+  </si>
+  <si>
+    <t>P08.01</t>
+  </si>
+  <si>
+    <t>P09.001</t>
+  </si>
+  <si>
+    <t>P10.01</t>
+  </si>
+  <si>
+    <t>P11.001</t>
+  </si>
+  <si>
+    <t>P12.001</t>
+  </si>
+  <si>
+    <t>P13.01</t>
+  </si>
+  <si>
+    <t>P14.01</t>
+  </si>
+  <si>
+    <t>Plenary lectures</t>
+  </si>
+  <si>
+    <t>ES1.1</t>
+  </si>
+  <si>
+    <t>P09. Complex traits and polygenic disorders</t>
+  </si>
+  <si>
+    <t>P14. Therapy for genetic disorders</t>
+  </si>
+  <si>
+    <t>EP08. Psychosocial issues in cardiac genetics</t>
+  </si>
+  <si>
+    <t>P15.01</t>
+  </si>
+  <si>
+    <t>P16.01</t>
+  </si>
+  <si>
+    <t>P17.01</t>
+  </si>
+  <si>
+    <t>P17.71.380</t>
+  </si>
+  <si>
+    <t>P07. Cancer cytogenetics</t>
+  </si>
+  <si>
+    <t>P08. Statistical genetics, includes Mapping, linkage and association methods</t>
+  </si>
+  <si>
+    <t>P10. Evolutionary and population genetics, and Genetic epidemiology</t>
+  </si>
+  <si>
+    <t>P13. Metabolic disorders</t>
+  </si>
+  <si>
+    <t>P15. Laboratory and quality management</t>
+  </si>
+  <si>
+    <t>P16. Molecular and biochemical basis of disease</t>
+  </si>
+  <si>
+    <t>P17. Genetic analysis, linkage ans association</t>
+  </si>
+  <si>
+    <t>P13.01 – P13.57. 350</t>
+  </si>
+  <si>
+    <t>EPL1.1</t>
+  </si>
+  <si>
+    <t>EPC5.1</t>
+  </si>
+  <si>
+    <t>EWS1.1</t>
+  </si>
+  <si>
+    <t>EP01.01</t>
+  </si>
+  <si>
+    <t>P07.27. 195</t>
+  </si>
+  <si>
+    <t>P08.58. 201</t>
+  </si>
+  <si>
+    <t>P09.142 215</t>
+  </si>
+  <si>
+    <t>P10.64. 252</t>
+  </si>
+  <si>
+    <t>P11.142 269</t>
+  </si>
+  <si>
+    <t>P12.223 300</t>
+  </si>
+  <si>
+    <t>P14.18. 362</t>
+  </si>
+  <si>
+    <t>P15.16. 366</t>
+  </si>
+  <si>
+    <t>EPL 7.5 371</t>
+  </si>
+  <si>
+    <t>EPC5.6 380</t>
+  </si>
+  <si>
+    <t>EWS3.2 382</t>
+  </si>
+  <si>
+    <t>EP01.05 383</t>
+  </si>
+  <si>
+    <t>P11. Genomics, Genomic technology including bioinformatics methods, gene structure and gene product function and Epigenetics</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>EP01. Reproductive issues in genetics, prenatal and preimplantation genetic diagnosis</t>
+  </si>
+  <si>
+    <t>EP14.01 396</t>
+  </si>
+  <si>
+    <t>EP15.01 – EP15.10 396</t>
+  </si>
+  <si>
+    <t>EP02.01</t>
+  </si>
+  <si>
+    <t>EP03.01</t>
+  </si>
+  <si>
+    <t>EP04.01</t>
+  </si>
+  <si>
+    <t>EP05.01</t>
+  </si>
+  <si>
+    <t>EP06.01</t>
+  </si>
+  <si>
+    <t>EP07.01</t>
+  </si>
+  <si>
+    <t>EP08.01</t>
+  </si>
+  <si>
+    <t>EP09.01</t>
+  </si>
+  <si>
+    <t>EP11.01</t>
+  </si>
+  <si>
+    <t>EP12.01</t>
+  </si>
+  <si>
+    <t>EP13.01</t>
+  </si>
+  <si>
+    <t>EP02.06 384</t>
+  </si>
+  <si>
+    <t>EP03.03 385</t>
+  </si>
+  <si>
+    <t>EP04.04 386</t>
+  </si>
+  <si>
+    <t>EP05.03 387</t>
+  </si>
+  <si>
+    <t>EP06.03 387</t>
+  </si>
+  <si>
+    <t>EP07.06 388</t>
+  </si>
+  <si>
+    <t>EP08.02 389</t>
+  </si>
+  <si>
+    <t>EP09.02 390</t>
+  </si>
+  <si>
+    <t>EP10.10 390</t>
+  </si>
+  <si>
+    <t>EP11.02 393</t>
+  </si>
+  <si>
+    <t>EP12.07 393</t>
+  </si>
+  <si>
+    <t>EP13.05 395</t>
+  </si>
+  <si>
+    <t>EP02. Prenatal and newborn screening</t>
+  </si>
+  <si>
+    <t>EP03. Risk perception and genetic testing</t>
+  </si>
+  <si>
+    <t>EP04. Access to genetic services (challenges in Europe)</t>
+  </si>
+  <si>
+    <t>EP05. Lay beliefs and public understanding of genetics</t>
+  </si>
+  <si>
+    <t>EP06. Predictive testing: process and impact</t>
+  </si>
+  <si>
+    <t>EP07. Psycho-social issues in cancer genetics</t>
+  </si>
+  <si>
+    <t>EP14. Evaluation of psycho-social interventions in genetics</t>
+  </si>
+  <si>
+    <t>EP15. Other relevant psychological and social topics in genetics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +3218,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -730,12 +3259,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55C3A7E-08D2-4BCB-B1CF-891CF1F09183}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,6 +3617,9 @@
       <c r="A2">
         <v>2001</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -2118,6 +4656,9 @@
       <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>182</v>
       </c>
@@ -2130,6 +4671,9 @@
       <c r="B75" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="C75" t="s">
+        <v>728</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
@@ -2142,6 +4686,9 @@
       <c r="B76" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>216</v>
       </c>
@@ -2154,6 +4701,9 @@
       <c r="B77" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="C77" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>183</v>
       </c>
@@ -2165,6 +4715,9 @@
       <c r="B78" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C78" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>184</v>
       </c>
@@ -2176,6 +4729,9 @@
       <c r="B79" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>185</v>
       </c>
@@ -2187,6 +4743,9 @@
       <c r="B80" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="C80" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>186</v>
       </c>
@@ -2198,6 +4757,9 @@
       <c r="B81" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="C81" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>187</v>
       </c>
@@ -2209,6 +4771,9 @@
       <c r="B82" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>188</v>
       </c>
@@ -2220,6 +4785,9 @@
       <c r="B83" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>735</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>189</v>
       </c>
@@ -2339,7 +4907,10 @@
         <v>2006</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
+      </c>
+      <c r="C94" t="s">
+        <v>229</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>114</v>
@@ -2350,7 +4921,10 @@
         <v>2006</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>115</v>
+        <v>736</v>
+      </c>
+      <c r="C95" t="s">
+        <v>741</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>115</v>
@@ -2361,7 +4935,10 @@
         <v>2006</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>116</v>
+        <v>737</v>
+      </c>
+      <c r="C96" t="s">
+        <v>742</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>116</v>
@@ -2372,7 +4949,10 @@
         <v>2006</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>117</v>
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>743</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>117</v>
@@ -2383,7 +4963,10 @@
         <v>2006</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>118</v>
+        <v>738</v>
+      </c>
+      <c r="C98" t="s">
+        <v>744</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>118</v>
@@ -2394,7 +4977,10 @@
         <v>2006</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>119</v>
+        <v>739</v>
+      </c>
+      <c r="C99" t="s">
+        <v>745</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>119</v>
@@ -2405,22 +4991,6396 @@
         <v>2006</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>120</v>
+        <v>740</v>
+      </c>
+      <c r="C100" t="s">
+        <v>746</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="1"/>
+      <c r="A101">
+        <v>2007</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D102" s="1"/>
+      <c r="A102">
+        <v>2007</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D103" s="1"/>
+      <c r="A103">
+        <v>2007</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2007</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2007</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2007</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2007</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2007</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2007</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2007</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2008</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2008</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2008</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2008</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2008</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2008</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2008</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2008</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2008</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2008</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2008</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2008</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2008</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2008</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2008</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2008</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2008</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2008</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2008</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2008</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2008</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2008</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2008</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2008</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2008</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2008</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2009</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2009</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2009</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2009</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2009</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2009</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2009</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2009</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2009</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2009</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2009</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2009</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2009</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2009</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2009</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2009</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2009</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2009</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2009</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2009</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2010</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2010</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2010</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2010</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D160" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2010</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C161" t="s">
+        <v>961</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2010</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2010</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2010</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2010</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2010</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2010</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2010</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2010</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2010</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2010</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2010</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2010</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2010</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2010</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2011</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2011</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2011</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2011</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2011</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2011</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2011</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2011</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2011</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>2011</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>2011</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>2011</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2011</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2011</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>2011</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>2011</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2011</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2011</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>2011</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>2011</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2011</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>2011</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2011</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>2011</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>2011</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>2011</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2011</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2011</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2011</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2011</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2011</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>2011</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2011</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>2011</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2011</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2011</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2011</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2011</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2011</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>2012</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2012</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2012</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2012</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2012</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2012</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2012</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2012</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2012</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2012</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>2012</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2012</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2012</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>2012</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>2012</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>2012</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>2012</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>2012</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>2012</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>2012</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>2012</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>2012</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>2012</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>2012</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>2012</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>2012</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>2012</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>2012</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>2012</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>2012</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>2012</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>2013</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>2013</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>2013</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>2013</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>2013</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>2013</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>2013</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>2013</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2013</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>2013</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2013</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>2013</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2013</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2013</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2013</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2013</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2013</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>2013</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>2013</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>2013</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2013</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>2013</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>2013</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>2013</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>2014</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2014</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>2014</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>2014</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2014</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2014</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>2014</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>2014</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>2014</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2014</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>2014</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>2014</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>2014</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2014</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>2014</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>2014</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2014</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>2014</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>2014</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2014</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>2014</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>2014</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>2014</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>2014</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>2014</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>2014</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2015</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>2015</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2015</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>2015</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2015</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>2015</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>2015</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2015</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>2015</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>2015</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>2015</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>2015</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>2015</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>2015</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>2015</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>2015</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>2015</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>2015</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>2015</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>2015</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>2015</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>2015</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>2015</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>2015</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>2015</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>2016</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>2016</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>2016</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>2016</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>2016</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>2016</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>2016</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>2016</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>2016</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>2016</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>2016</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>2016</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>2016</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>2016</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>2016</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2016</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>2016</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>2016</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>2016</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>2016</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>2016</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>2016</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>2016</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>2016</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>2016</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2016</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>2016</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>2017</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>2017</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>2017</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>2017</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>2017</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2017</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>2017</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>2017</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>2017</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>2017</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>2017</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>2017</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>2017</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>2017</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>2017</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>2017</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>2017</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>2017</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>2017</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>2017</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>2017</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>2017</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>2017</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>2017</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>2017</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>2017</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>2017</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>2017</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>2017</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>2017</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>2017</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>2017</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>2017</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>2017</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>2017</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>2017</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>2017</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>2017</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>2017</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>2017</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>2017</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>2017</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>2017</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>2017</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>2017</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>2017</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>2017</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>2017</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>2017</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>2017</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>2017</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>2017</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>2017</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>2017</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>2017</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>2017</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>2017</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>2017</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>2017</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>2017</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>2017</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>2017</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>2017</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>2017</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>2017</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>2017</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>2017</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>2017</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>2017</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>2017</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>2017</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>2017</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>2017</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>2017</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>2017</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>2017</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>2017</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>2017</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>2017</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>2017</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>2017</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>2017</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>2017</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>2017</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>2017</v>
+      </c>
+      <c r="D432" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>2017</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>2017</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>2017</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>2017</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>2017</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>2017</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>2017</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>2017</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>2017</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>2017</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>2017</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>2017</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>2018</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>2018</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>2018</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>2018</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>2018</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>2018</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>2018</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>2018</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>2018</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>2018</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>2018</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>2018</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>2018</v>
+      </c>
+      <c r="D457" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>2018</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>2018</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>2018</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>2018</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>2018</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>2018</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>2018</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>2018</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>2018</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>2018</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>2018</v>
+      </c>
+      <c r="D468" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>2018</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>2018</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>2018</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>2018</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>2018</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>2018</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>2018</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>2018</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>2018</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>2018</v>
+      </c>
+      <c r="D478" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>2018</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>2018</v>
+      </c>
+      <c r="D480" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>2018</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>2018</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>2018</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>2018</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>2018</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>2018</v>
+      </c>
+      <c r="D486" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>2018</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>2018</v>
+      </c>
+      <c r="D488" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>2018</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>2018</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>2018</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>2018</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>2018</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>2018</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>2018</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>2018</v>
+      </c>
+      <c r="D496" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>2018</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>2018</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>2018</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>2018</v>
+      </c>
+      <c r="D500" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>2018</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>2018</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>2018</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>2018</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>2018</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>2018</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>2018</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>2018</v>
+      </c>
+      <c r="D508" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>2018</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>2018</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>2018</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>2018</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>2018</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>2018</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>2018</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>2018</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>2018</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>2018</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>2018</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>2018</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>2018</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>2018</v>
+      </c>
+      <c r="D522" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>2018</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>2018</v>
+      </c>
+      <c r="D524" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>2018</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>2018</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>2018</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>2018</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>2018</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>2018</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>2018</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>2018</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>2018</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>2018</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>2018</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>2018</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>2018</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>2018</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>2018</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>2018</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>2018</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>2018</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>2018</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>2018</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>2018</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>2018</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>2018</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>2018</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>2018</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>2018</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>2019</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>2019</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>2019</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>2019</v>
+      </c>
+      <c r="D554" s="4"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>2019</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>2019</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>2019</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>2019</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>2019</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>2019</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>2019</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>2019</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>2019</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>2019</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>2019</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>2019</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>2019</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>2019</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>2019</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>2019</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>2019</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>2019</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>2019</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>2019</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>2019</v>
+      </c>
+      <c r="D575" s="4"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>2019</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>2019</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>2019</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>2019</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>2019</v>
+      </c>
+      <c r="D580" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>2019</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>2019</v>
+      </c>
+      <c r="D582" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>2019</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>2019</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>2019</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>2019</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>2019</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>2019</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>2019</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>2019</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>2019</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>2019</v>
+      </c>
+      <c r="D592" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>2019</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>2019</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>2019</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>2019</v>
+      </c>
+      <c r="D596" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>2019</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>2019</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>2019</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>2019</v>
+      </c>
+      <c r="D600" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>2019</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>2019</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>2019</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>2019</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>2019</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>2019</v>
+      </c>
+      <c r="D606" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>2019</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>2019</v>
+      </c>
+      <c r="D608" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>2019</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>2019</v>
+      </c>
+      <c r="D610" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>2019</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <v>2019</v>
+      </c>
+      <c r="D612" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <v>2019</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <v>2019</v>
+      </c>
+      <c r="D614" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <v>2019</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <v>2019</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <v>2019</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <v>2019</v>
+      </c>
+      <c r="D618" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <v>2019</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <v>2019</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <v>2019</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <v>2019</v>
+      </c>
+      <c r="D622" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <v>2019</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <v>2019</v>
+      </c>
+      <c r="D624" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <v>2019</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>2019</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>2019</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>2019</v>
+      </c>
+      <c r="D628" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <v>2019</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <v>2019</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <v>2019</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <v>2019</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <v>2019</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <v>2019</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <v>2019</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <v>2019</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <v>2019</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <v>2019</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <v>2019</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <v>2019</v>
+      </c>
+      <c r="D640" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <v>2019</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <v>2019</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <v>2019</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <v>2019</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <v>2019</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <v>2019</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <v>2019</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <v>2019</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <v>2019</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <v>2019</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <v>2019</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <v>2019</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <v>2019</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <v>2019</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <v>2019</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <v>2019</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <v>2019</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <v>2019</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <v>2019</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <v>2019</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <v>2019</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <v>2019</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <v>2019</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <v>2019</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <v>2020</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <v>2020</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <v>2020</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <v>2020</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <v>2020</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <v>2020</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <v>2020</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <v>2020</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <v>2020</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <v>2020</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <v>2020</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <v>2020</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <v>2020</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <v>2020</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <v>2020</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <v>2020</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <v>2020</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <v>2020</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <v>2020</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <v>2020</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <v>2020</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <v>2020</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <v>2020</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <v>2021</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D688" s="3"/>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <v>2021</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D689" s="4"/>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <v>2021</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D690" s="4"/>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <v>2021</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <v>2021</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <v>2021</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <v>2021</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <v>2021</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <v>2021</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <v>2021</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <v>2021</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <v>2021</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <v>2021</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <v>2021</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <v>2021</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <v>2021</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <v>2021</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <v>2021</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <v>2021</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <v>2021</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <v>2021</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <v>2021</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <v>2021</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <v>2021</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>2021</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713">
+        <v>2021</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714">
+        <v>2021</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715">
+        <v>2021</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716">
+        <v>2021</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717">
+        <v>2021</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718">
+        <v>2021</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719">
+        <v>2021</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720">
+        <v>2021</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721">
+        <v>2021</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722">
+        <v>2021</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723">
+        <v>2021</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724">
+        <v>2021</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725">
+        <v>2021</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726">
+        <v>2021</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727">
+        <v>2021</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728">
+        <v>2021</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729">
+        <v>2021</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730">
+        <v>2021</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731">
+        <v>2021</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732">
+        <v>2021</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733">
+        <v>2021</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734">
+        <v>2021</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735">
+        <v>2021</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736">
+        <v>2021</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737">
+        <v>2021</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738">
+        <v>2021</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739">
+        <v>2021</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>2021</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741">
+        <v>2021</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742">
+        <v>2021</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743">
+        <v>2021</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744">
+        <v>2021</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745">
+        <v>2021</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746">
+        <v>2021</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747">
+        <v>2021</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748">
+        <v>2021</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749">
+        <v>2021</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750">
+        <v>2021</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751">
+        <v>2021</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752">
+        <v>2021</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753">
+        <v>2021</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754">
+        <v>2021</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755">
+        <v>2021</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <v>2021</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <v>2021</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <v>2021</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <v>2021</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <v>2021</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <v>2021</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <v>2021</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <v>2021</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <v>2021</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <v>2021</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <v>2021</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767">
+        <v>2021</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768">
+        <v>2021</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769">
+        <v>2021</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770">
+        <v>2021</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771">
+        <v>2021</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772">
+        <v>2021</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773">
+        <v>2021</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774">
+        <v>2021</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775">
+        <v>2021</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A776">
+        <v>2021</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A777">
+        <v>2021</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A778">
+        <v>2021</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A779">
+        <v>2021</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A780">
+        <v>2021</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A781">
+        <v>2021</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A782">
+        <v>2021</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D786" s="4"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D787" s="4"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D788" s="4"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D789" s="4"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D790" s="4"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D791" s="4"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D792" s="4"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D793" s="4"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D794" s="4"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D795" s="4"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D796" s="4"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D797" s="4"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D798" s="4"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D799" s="4"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D800" s="4"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D801" s="4"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D802" s="4"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D803" s="4"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D804" s="4"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D805" s="4"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D806" s="4"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D807" s="4"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D808" s="4"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D809" s="4"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D810" s="4"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D811" s="4"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D812" s="4"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D813" s="4"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D814" s="4"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D815" s="4"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D816" s="4"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D817" s="4"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D818" s="4"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D819" s="4"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D820" s="4"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D821" s="4"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D822" s="4"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D823" s="4"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D824" s="4"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D825" s="4"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D826" s="4"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D827" s="4"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D828" s="4"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D829" s="4"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D830" s="4"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D831" s="4"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D832" s="4"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D833" s="4"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D834" s="4"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D835" s="4"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D836" s="4"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D837" s="4"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D838" s="4"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D839" s="4"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D840" s="4"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D841" s="4"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D842" s="4"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D843" s="4"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D844" s="4"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D845" s="4"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D846" s="4"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D847" s="4"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D848" s="4"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D849" s="4"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D850" s="4"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D851" s="4"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D852" s="4"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D853" s="4"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D854" s="4"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D855" s="4"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D856" s="4"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D857" s="4"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D858" s="4"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D859" s="4"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D860" s="4"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D861" s="4"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D862" s="4"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D863" s="4"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D864" s="4"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D865" s="4"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D866" s="4"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D867" s="4"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D868" s="4"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D869" s="4"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D870" s="4"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D871" s="4"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D872" s="4"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D873" s="4"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D874" s="4"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D875" s="4"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D876" s="4"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D877" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A692:N902">
+    <sortCondition ref="D692:D902"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
